--- a/doc/Examples.xlsx
+++ b/doc/Examples.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\programs\rangeset-int\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1E2AC34-3530-4DD7-B193-77E66739327E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83790DD0-F0B2-4003-BC76-112C23E5E459}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="30315" yWindow="1245" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="example 1" sheetId="1" r:id="rId1"/>
@@ -456,67 +456,66 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:AB5"/>
+  <dimension ref="B2:AC5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="T3" sqref="T3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.140625" customWidth="1"/>
-    <col min="2" max="27" width="3.42578125" customWidth="1"/>
-    <col min="28" max="28" width="4.28515625" customWidth="1"/>
+    <col min="2" max="2" width="8.140625" customWidth="1"/>
+    <col min="3" max="28" width="3.42578125" customWidth="1"/>
+    <col min="29" max="29" width="4.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:28">
-      <c r="A2" s="6"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1">
+    <row r="2" spans="2:29">
+      <c r="B2" s="6"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1">
         <v>-20</v>
       </c>
-      <c r="D2" s="1"/>
       <c r="E2" s="1"/>
-      <c r="F2" s="1">
+      <c r="F2" s="1"/>
+      <c r="G2" s="1">
         <v>100</v>
       </c>
-      <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
-      <c r="M2" s="1">
+      <c r="M2" s="1"/>
+      <c r="N2" s="1">
         <v>400</v>
       </c>
-      <c r="N2" s="1"/>
       <c r="O2" s="1"/>
-      <c r="P2" s="1">
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1">
         <v>499</v>
       </c>
-      <c r="Q2" s="1">
+      <c r="R2" s="1">
         <v>500</v>
       </c>
-      <c r="R2" s="1">
+      <c r="S2" s="1">
         <v>501</v>
       </c>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1">
+      <c r="T2" s="1"/>
+      <c r="U2" s="1">
         <v>599</v>
       </c>
-      <c r="U2" s="1">
+      <c r="V2" s="1">
         <v>600</v>
       </c>
-      <c r="AA2" s="1">
+      <c r="AB2" s="1">
         <v>999</v>
       </c>
-      <c r="AB2" s="1"/>
-    </row>
-    <row r="3" spans="1:28">
-      <c r="A3" s="5" t="s">
+      <c r="AC2" s="1"/>
+    </row>
+    <row r="3" spans="2:29">
+      <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="3"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
@@ -527,7 +526,7 @@
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>
-      <c r="R3" s="3"/>
+      <c r="Q3" s="3"/>
       <c r="S3" s="3"/>
       <c r="T3" s="3"/>
       <c r="U3" s="3"/>
@@ -537,13 +536,13 @@
       <c r="Y3" s="3"/>
       <c r="Z3" s="3"/>
       <c r="AA3" s="3"/>
-    </row>
-    <row r="4" spans="1:28" ht="15.75" thickBot="1">
-      <c r="A4" s="11" t="s">
+      <c r="AB3" s="3"/>
+    </row>
+    <row r="4" spans="2:29" ht="15.75" thickBot="1">
+      <c r="B4" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="M4" s="2"/>
+      <c r="D4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
@@ -551,13 +550,13 @@
       <c r="R4" s="2"/>
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
-    </row>
-    <row r="5" spans="1:28">
-      <c r="A5" s="5" t="s">
+      <c r="U4" s="2"/>
+    </row>
+    <row r="5" spans="2:29">
+      <c r="B5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="F5" s="4"/>
+      <c r="D5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
@@ -579,6 +578,7 @@
       <c r="Y5" s="4"/>
       <c r="Z5" s="4"/>
       <c r="AA5" s="4"/>
+      <c r="AB5" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -588,72 +588,71 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A2:AJ19"/>
+  <dimension ref="B2:AK19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26" customWidth="1"/>
-    <col min="2" max="27" width="3.42578125" customWidth="1"/>
-    <col min="28" max="28" width="4.28515625" customWidth="1"/>
+    <col min="2" max="2" width="26" customWidth="1"/>
+    <col min="3" max="28" width="3.42578125" customWidth="1"/>
+    <col min="29" max="29" width="4.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:36" ht="27.75">
-      <c r="A2" s="6"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="9">
+    <row r="2" spans="2:37" ht="27.75">
+      <c r="B2" s="6"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="9">
         <v>29370</v>
       </c>
-      <c r="D2" s="9"/>
       <c r="E2" s="9"/>
-      <c r="F2" s="9">
+      <c r="F2" s="9"/>
+      <c r="G2" s="9">
         <v>30817</v>
       </c>
-      <c r="G2" s="9">
-        <f>F2+1</f>
+      <c r="H2" s="9">
+        <f>G2+1</f>
         <v>30818</v>
       </c>
-      <c r="J2" s="9"/>
       <c r="K2" s="9"/>
-      <c r="L2" s="9">
+      <c r="L2" s="9"/>
+      <c r="M2" s="9">
         <v>32357</v>
       </c>
-      <c r="M2" s="9">
+      <c r="N2" s="9">
         <v>32358</v>
       </c>
-      <c r="N2" s="9"/>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="9">
+      <c r="O2" s="9"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9">
         <v>32561</v>
       </c>
-      <c r="R2" s="9">
-        <f>Q2+1</f>
+      <c r="S2" s="9">
+        <f>R2+1</f>
         <v>32562</v>
       </c>
-      <c r="S2" s="9"/>
       <c r="T2" s="9"/>
-      <c r="U2" s="9">
+      <c r="U2" s="9"/>
+      <c r="V2" s="9">
         <v>36714</v>
       </c>
-      <c r="V2" s="9">
+      <c r="W2" s="9">
         <v>36715</v>
       </c>
-      <c r="X2" s="9"/>
       <c r="Y2" s="9"/>
       <c r="Z2" s="9"/>
-      <c r="AA2" s="9">
+      <c r="AA2" s="9"/>
+      <c r="AB2" s="9">
         <v>37380</v>
       </c>
-      <c r="AB2" s="9"/>
-    </row>
-    <row r="3" spans="1:36" ht="15.75">
-      <c r="A3" s="7" t="s">
+      <c r="AC2" s="9"/>
+    </row>
+    <row r="3" spans="2:37">
+      <c r="B3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
@@ -678,115 +677,116 @@
       <c r="Y3" s="3"/>
       <c r="Z3" s="3"/>
       <c r="AA3" s="3"/>
-    </row>
-    <row r="4" spans="1:36" ht="15.75" thickBot="1">
-      <c r="A4" s="11" t="s">
+      <c r="AB3" s="3"/>
+    </row>
+    <row r="4" spans="2:37" ht="15.75" thickBot="1">
+      <c r="B4" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
-      <c r="M4" s="2"/>
+      <c r="G4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
-      <c r="V4" s="2"/>
+      <c r="R4" s="2"/>
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
       <c r="Y4" s="2"/>
       <c r="Z4" s="2"/>
       <c r="AA4" s="2"/>
-    </row>
-    <row r="5" spans="1:36" ht="15.75">
-      <c r="A5" s="10" t="s">
+      <c r="AB4" s="2"/>
+    </row>
+    <row r="5" spans="2:37" ht="15.75">
+      <c r="B5" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
-      <c r="R5" s="4"/>
+      <c r="M5" s="4"/>
       <c r="S5" s="4"/>
       <c r="T5" s="4"/>
       <c r="U5" s="4"/>
-    </row>
-    <row r="9" spans="1:36" ht="15.75">
-      <c r="AE9" s="8">
+      <c r="V5" s="4"/>
+    </row>
+    <row r="9" spans="2:37">
+      <c r="AF9" s="8">
         <v>29370</v>
       </c>
-      <c r="AF9">
+      <c r="AG9">
         <v>32358</v>
       </c>
-      <c r="AG9">
+      <c r="AH9">
         <v>36715</v>
       </c>
-      <c r="AH9">
+      <c r="AI9">
         <v>30817</v>
       </c>
-      <c r="AI9">
+      <c r="AJ9">
         <v>32561</v>
       </c>
-      <c r="AJ9">
+      <c r="AK9">
         <v>37380</v>
       </c>
     </row>
-    <row r="11" spans="1:36">
-      <c r="AE11">
+    <row r="11" spans="2:37">
+      <c r="AF11">
         <v>29370</v>
       </c>
     </row>
-    <row r="12" spans="1:36">
-      <c r="AE12">
+    <row r="12" spans="2:37">
+      <c r="AF12">
         <v>30817</v>
       </c>
     </row>
-    <row r="13" spans="1:36">
-      <c r="AE13">
+    <row r="13" spans="2:37">
+      <c r="AF13">
         <v>32358</v>
       </c>
     </row>
-    <row r="14" spans="1:36">
-      <c r="AE14">
+    <row r="14" spans="2:37">
+      <c r="AF14">
         <v>32561</v>
       </c>
     </row>
-    <row r="15" spans="1:36">
-      <c r="AE15">
+    <row r="15" spans="2:37">
+      <c r="AF15">
         <v>36715</v>
       </c>
     </row>
-    <row r="16" spans="1:36">
-      <c r="AE16">
+    <row r="16" spans="2:37">
+      <c r="AF16">
         <v>37380</v>
       </c>
     </row>
-    <row r="19" spans="31:36">
-      <c r="AE19">
+    <row r="19" spans="32:37">
+      <c r="AF19">
         <v>29370</v>
       </c>
-      <c r="AF19">
+      <c r="AG19">
         <v>30817</v>
       </c>
-      <c r="AG19">
+      <c r="AH19">
         <v>32358</v>
       </c>
-      <c r="AH19">
+      <c r="AI19">
         <v>32561</v>
       </c>
-      <c r="AI19">
+      <c r="AJ19">
         <v>36715</v>
       </c>
-      <c r="AJ19">
+      <c r="AK19">
         <v>37380</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="AE12:AE16">
-    <sortCondition ref="AE12:AE16"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="AF12:AF16">
+    <sortCondition ref="AF12:AF16"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
